--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204787.3513991398</v>
+        <v>-207251.4148428447</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>253.7974036842236</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292592</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>242.3977510333382</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>264.6171092506989</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.9087972266233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.62149822509235</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>220.1070326746014</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>70.26738408404748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>20.18337759832792</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>287.4853833252925</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>293.5228477376549</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>69.3030881599732</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02512141542656082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.7304175246775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7362831624772</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.5361117049702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>134.4555615353782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>135.5795121770519</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>192.8170508184355</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>9.146142788179368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>113.3214422457868</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>94.80184639741307</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>50.06209150957608</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581646</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>112.6683130937957</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.723135529484</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C2" t="n">
-        <v>877.7606185890727</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D2" t="n">
-        <v>519.4949199823222</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3080.759608444183</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2749.696721100612</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2396.928065830498</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.462307569418</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.322975593606</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>2555.032855418911</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>2300.348367213025</v>
       </c>
       <c r="W4" t="n">
-        <v>1408.124251906171</v>
+        <v>2010.931197176064</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>1782.941646278047</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>1562.149067134517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>3103.275485574221</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118628</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142817</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.3439163053883</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>549.4077333774815</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.774511177176</v>
+        <v>1148.939852937165</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.784960279158</v>
+        <v>920.9503020391476</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.9923811356281</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1480.516858765517</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C8" t="n">
-        <v>1111.554341825105</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.554341825105</v>
+        <v>773.9857462093212</v>
       </c>
       <c r="E8" t="n">
-        <v>1111.554341825105</v>
+        <v>773.9857462093212</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>362.9998414197136</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.72178906653</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.25603080545</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.116698829639</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1346.421946430154</v>
       </c>
       <c r="W10" t="n">
-        <v>880.1988609950312</v>
+        <v>1057.004776393193</v>
       </c>
       <c r="X10" t="n">
-        <v>880.1988609950312</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.406281851501</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.572155334121</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.15498529716</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.165434399143</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.3728552556131</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2242.968377633621</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.366912656562</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6127,7 +6127,7 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2082.596442208995</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1793.521215553193</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1538.836727347306</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
         <v>343.0994656851783</v>
@@ -7090,55 +7090,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100.8856379364594</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>58.76996414498127</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>200.575354599328</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>8.597420925563824</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>21.59472895491393</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>45.69767948409202</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.0485416471246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.6820817884498</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>45.44677382459273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.58839950885272</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>104.0840080815015</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.44497470121476</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.4620467826928</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017069.314317492</v>
+        <v>1017069.314317493</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028987</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>302679.9748837523</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
@@ -26335,25 +26335,25 @@
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="L2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="K2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39258.33370057282</v>
+        <v>39258.33370057291</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26433,10 +26433,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26445,19 +26445,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201216.05338666</v>
+        <v>-1201437.184700635</v>
       </c>
       <c r="C6" t="n">
-        <v>110212.6000795805</v>
+        <v>110212.6000795806</v>
       </c>
       <c r="D6" t="n">
-        <v>110212.6000795808</v>
+        <v>110212.6000795803</v>
       </c>
       <c r="E6" t="n">
-        <v>-134412.1050342918</v>
+        <v>-134446.8429597268</v>
       </c>
       <c r="F6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476283</v>
       </c>
       <c r="G6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476281</v>
       </c>
       <c r="H6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="I6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="J6" t="n">
-        <v>-26530.84562421349</v>
+        <v>-26565.58354964941</v>
       </c>
       <c r="K6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476281</v>
       </c>
       <c r="L6" t="n">
-        <v>191000.356773064</v>
+        <v>190965.618847628</v>
       </c>
       <c r="M6" t="n">
-        <v>105945.328837552</v>
+        <v>105910.5909121166</v>
       </c>
       <c r="N6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="O6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="P6" t="n">
-        <v>166750.8823016841</v>
+        <v>166750.8823016842</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>348.1060815967302</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.342615540292115</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>113.6142011099677</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.1123434383882</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>107.6452257955335</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>78.34808893416488</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.3396207382631</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>119.3906624164189</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>117.3988779157986</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>182.8345551638548</v>
       </c>
       <c r="W10" t="n">
-        <v>286.4978769211644</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
